--- a/backend/Gadgets.xlsx
+++ b/backend/Gadgets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\doraemon\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5994E1B-55F3-4356-9B15-910D16FB142A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77FB4AC-3493-47FE-8B7B-1126F4A0749D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Anywhere Door</t>
   </si>
@@ -52,30 +52,12 @@
     <t>Anything will become smaller when it is lit with this.</t>
   </si>
   <si>
-    <t>Dokodemo Door</t>
-  </si>
-  <si>
-    <t>A door that can be placed anywhere and leads to the user's desired location.</t>
-  </si>
-  <si>
-    <t>Bamboo-Copter</t>
-  </si>
-  <si>
-    <t>A small helicopter made out of bamboo that allows the user to fly.</t>
-  </si>
-  <si>
     <t>Translation Jelly</t>
   </si>
   <si>
     <t>A jelly that allows the user to understand and speak any language.</t>
   </si>
   <si>
-    <t>What-If Box</t>
-  </si>
-  <si>
-    <t>A box that can create any scenario or situation that the user desires.</t>
-  </si>
-  <si>
     <t>Time Cloth</t>
   </si>
   <si>
@@ -94,36 +76,6 @@
     <t>A device that can create a gust of wind to propel the user.</t>
   </si>
   <si>
-    <t>Time Furoshiki</t>
-  </si>
-  <si>
-    <t>The Time Furoshiki is a cloth that allows the user to time travel by wrapping it around themselves.</t>
-  </si>
-  <si>
-    <t>Lighter Bread</t>
-  </si>
-  <si>
-    <t>a bread that can produce a flame to light up cigarettes, stoves, or candles.</t>
-  </si>
-  <si>
-    <t>Time Kerchief</t>
-  </si>
-  <si>
-    <t>a gadget that allows the user to travel through time by simply tying it around their neck.</t>
-  </si>
-  <si>
-    <t>Earth Light</t>
-  </si>
-  <si>
-    <t>a device that can make plants grow rapidly and produce large fruits or vegetables.</t>
-  </si>
-  <si>
-    <t>Portable Closet</t>
-  </si>
-  <si>
-    <t>a compact storage device that can hold an infinite amount of items inside a small, handheld container.</t>
-  </si>
-  <si>
     <t>Invisibility Cape</t>
   </si>
   <si>
@@ -271,9 +223,6 @@
     <t>Portable Train</t>
   </si>
   <si>
-    <t>Robotic Vacuum Cleaner</t>
-  </si>
-  <si>
     <t>Fish Translator</t>
   </si>
   <si>
@@ -458,13 +407,34 @@
   </si>
   <si>
     <t>Horse Racetrack is a gadget that creates a miniature racecourse, allowing users to race and bet on their own horses.</t>
+  </si>
+  <si>
+    <t>Portable Train is a small train that can shrink down to fit in a pocket and then be used for transportation.</t>
+  </si>
+  <si>
+    <t>Dust Robo</t>
+  </si>
+  <si>
+    <t>it is a robotic vacuum cleaner that can clean and sweep floors automatically with its advanced cleaning technology.</t>
+  </si>
+  <si>
+    <t>Fish Translator is a gadget that allows him and his friends to communicate with fish and other aquatic creatures, enabling them to understand their language and interact with them.</t>
+  </si>
+  <si>
+    <t>Electric Hands are a pair of gloves that give the user the ability to generate electric shocks and discharge electricity for various purposes.</t>
+  </si>
+  <si>
+    <t>The Jumbo Gyoza Maker is a gadget that creates giant dumplings filled with any desired ingredient, ready to be cooked and eaten.</t>
+  </si>
+  <si>
+    <t>Animal Repellent gadget emits a high-frequency sound that repels animals, making them flee from the area. It is often used to keep pests away from crops or to avoid encounters with dangerous animals.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -483,14 +453,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="&quot;Open Sans&quot;"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF374151"/>
-      <name val="Söhne"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -502,19 +469,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -544,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -552,18 +506,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,23 +733,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z96"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28.453125" customWidth="1"/>
-    <col min="2" max="2" width="196.08984375" customWidth="1"/>
+    <col min="2" max="2" width="196.08984375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
@@ -827,10 +778,10 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
@@ -862,7 +813,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
@@ -894,7 +845,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2"/>
@@ -926,7 +877,7 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
@@ -958,7 +909,7 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2"/>
@@ -990,7 +941,7 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2"/>
@@ -1022,7 +973,7 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2"/>
@@ -1054,7 +1005,7 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2"/>
@@ -1086,7 +1037,7 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2"/>
@@ -1118,7 +1069,7 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2"/>
@@ -1150,7 +1101,7 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2"/>
@@ -1182,7 +1133,7 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="2"/>
@@ -1214,7 +1165,7 @@
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="2"/>
@@ -1246,7 +1197,7 @@
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2"/>
@@ -1278,7 +1229,7 @@
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="2"/>
@@ -1310,7 +1261,7 @@
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="2"/>
@@ -1342,7 +1293,7 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2"/>
@@ -1374,7 +1325,7 @@
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="2"/>
@@ -1406,7 +1357,7 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="2"/>
@@ -1438,7 +1389,7 @@
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="2"/>
@@ -1470,7 +1421,7 @@
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="2"/>
@@ -1502,7 +1453,7 @@
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="2"/>
@@ -1534,7 +1485,7 @@
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="2"/>
@@ -1566,8 +1517,8 @@
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>49</v>
+      <c r="B25" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1596,10 +1547,10 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1628,10 +1579,10 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1660,10 +1611,10 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1690,12 +1641,12 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.5">
       <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1722,12 +1673,12 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.5">
       <c r="A30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1754,12 +1705,12 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.5">
       <c r="A31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1786,12 +1737,12 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.5">
       <c r="A32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1818,12 +1769,12 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.5">
       <c r="A33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>128</v>
+        <v>56</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1850,12 +1801,12 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.5">
       <c r="A34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>129</v>
+        <v>57</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1882,12 +1833,12 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.5">
       <c r="A35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>130</v>
+        <v>58</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1914,12 +1865,12 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.5">
       <c r="A36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>131</v>
+        <v>59</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1946,12 +1897,12 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="17.5">
+    <row r="37" spans="1:26" ht="15.5">
       <c r="A37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>132</v>
+        <v>60</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1978,12 +1929,12 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="17.5">
+    <row r="38" spans="1:26" ht="15.5">
       <c r="A38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>133</v>
+        <v>61</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2010,12 +1961,12 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="17.5">
+    <row r="39" spans="1:26" ht="15.5">
       <c r="A39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>134</v>
+        <v>62</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2042,12 +1993,12 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="17.5">
+    <row r="40" spans="1:26" ht="15.5">
       <c r="A40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>135</v>
+        <v>63</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2074,12 +2025,12 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="17.5">
+    <row r="41" spans="1:26" ht="15.5">
       <c r="A41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>136</v>
+        <v>64</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2106,12 +2057,12 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="17.5">
+    <row r="42" spans="1:26" ht="15.5">
       <c r="A42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>137</v>
+        <v>65</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2138,12 +2089,12 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="17.5">
+    <row r="43" spans="1:26" ht="15.5">
       <c r="A43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>138</v>
+        <v>66</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2170,12 +2121,12 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="17.5">
-      <c r="A44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>139</v>
+    <row r="44" spans="1:26" ht="15.5">
+      <c r="A44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2202,12 +2153,12 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="17.5">
+    <row r="45" spans="1:26" ht="15.5">
       <c r="A45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>140</v>
+        <v>67</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2234,12 +2185,12 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="17.5">
+    <row r="46" spans="1:26" ht="15.5">
       <c r="A46" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>141</v>
+        <v>68</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2266,12 +2217,12 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="17.5">
+    <row r="47" spans="1:26" ht="15.5">
       <c r="A47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>142</v>
+        <v>69</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2300,10 +2251,10 @@
     </row>
     <row r="48" spans="1:26" ht="15.5">
       <c r="A48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>143</v>
+        <v>70</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2332,11 +2283,9 @@
     </row>
     <row r="49" spans="1:26" ht="15.5">
       <c r="A49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>144</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B49" s="5"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2364,11 +2313,9 @@
     </row>
     <row r="50" spans="1:26" ht="15.5">
       <c r="A50" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B50" s="5"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2396,9 +2343,9 @@
     </row>
     <row r="51" spans="1:26" ht="15.5">
       <c r="A51" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="B51" s="5"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2426,9 +2373,9 @@
     </row>
     <row r="52" spans="1:26" ht="15.5">
       <c r="A52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="B52" s="5"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2456,9 +2403,9 @@
     </row>
     <row r="53" spans="1:26" ht="15.5">
       <c r="A53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="B53" s="5"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2486,9 +2433,9 @@
     </row>
     <row r="54" spans="1:26" ht="15.5">
       <c r="A54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B54" s="5"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2516,9 +2463,9 @@
     </row>
     <row r="55" spans="1:26" ht="15.5">
       <c r="A55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2546,9 +2493,9 @@
     </row>
     <row r="56" spans="1:26" ht="15.5">
       <c r="A56" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="B56" s="5"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2576,9 +2523,9 @@
     </row>
     <row r="57" spans="1:26" ht="15.5">
       <c r="A57" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="B57" s="5"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2606,9 +2553,9 @@
     </row>
     <row r="58" spans="1:26" ht="15.5">
       <c r="A58" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="B58" s="5"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2636,9 +2583,9 @@
     </row>
     <row r="59" spans="1:26" ht="15.5">
       <c r="A59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2666,9 +2613,9 @@
     </row>
     <row r="60" spans="1:26" ht="15.5">
       <c r="A60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="B60" s="5"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2696,9 +2643,9 @@
     </row>
     <row r="61" spans="1:26" ht="15.5">
       <c r="A61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B61" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="B61" s="5"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2726,9 +2673,9 @@
     </row>
     <row r="62" spans="1:26" ht="15.5">
       <c r="A62" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B62" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="B62" s="5"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2756,9 +2703,9 @@
     </row>
     <row r="63" spans="1:26" ht="15.5">
       <c r="A63" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="B63" s="5"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2786,9 +2733,9 @@
     </row>
     <row r="64" spans="1:26" ht="15.5">
       <c r="A64" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B64" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="B64" s="5"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2816,9 +2763,9 @@
     </row>
     <row r="65" spans="1:26" ht="15.5">
       <c r="A65" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="B65" s="5"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2846,9 +2793,9 @@
     </row>
     <row r="66" spans="1:26" ht="15.5">
       <c r="A66" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="B66" s="5"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2876,9 +2823,9 @@
     </row>
     <row r="67" spans="1:26" ht="15.5">
       <c r="A67" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="B67" s="5"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2906,9 +2853,9 @@
     </row>
     <row r="68" spans="1:26" ht="15.5">
       <c r="A68" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="B68" s="5"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2936,9 +2883,9 @@
     </row>
     <row r="69" spans="1:26" ht="15.5">
       <c r="A69" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B69" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="B69" s="5"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2966,9 +2913,9 @@
     </row>
     <row r="70" spans="1:26" ht="15.5">
       <c r="A70" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B70" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="B70" s="5"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2996,9 +2943,9 @@
     </row>
     <row r="71" spans="1:26" ht="15.5">
       <c r="A71" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="B71" s="5"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -3026,9 +2973,9 @@
     </row>
     <row r="72" spans="1:26" ht="15.5">
       <c r="A72" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B72" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="B72" s="5"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -3056,9 +3003,9 @@
     </row>
     <row r="73" spans="1:26" ht="15.5">
       <c r="A73" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B73" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="B73" s="5"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -3086,9 +3033,9 @@
     </row>
     <row r="74" spans="1:26" ht="15.5">
       <c r="A74" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="B74" s="5"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -3116,9 +3063,9 @@
     </row>
     <row r="75" spans="1:26" ht="15.5">
       <c r="A75" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B75" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="B75" s="5"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -3146,9 +3093,9 @@
     </row>
     <row r="76" spans="1:26" ht="15.5">
       <c r="A76" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B76" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="B76" s="5"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -3176,9 +3123,9 @@
     </row>
     <row r="77" spans="1:26" ht="15.5">
       <c r="A77" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B77" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="B77" s="5"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -3206,9 +3153,9 @@
     </row>
     <row r="78" spans="1:26" ht="15.5">
       <c r="A78" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B78" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="B78" s="5"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -3236,9 +3183,9 @@
     </row>
     <row r="79" spans="1:26" ht="15.5">
       <c r="A79" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B79" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="B79" s="5"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -3266,9 +3213,9 @@
     </row>
     <row r="80" spans="1:26" ht="15.5">
       <c r="A80" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B80" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="B80" s="5"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -3296,9 +3243,9 @@
     </row>
     <row r="81" spans="1:26" ht="15.5">
       <c r="A81" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B81" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="B81" s="5"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3326,9 +3273,9 @@
     </row>
     <row r="82" spans="1:26" ht="15.5">
       <c r="A82" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B82" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="B82" s="5"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3356,9 +3303,9 @@
     </row>
     <row r="83" spans="1:26" ht="15.5">
       <c r="A83" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B83" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="B83" s="5"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3386,9 +3333,9 @@
     </row>
     <row r="84" spans="1:26" ht="15.5">
       <c r="A84" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B84" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="B84" s="5"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3416,9 +3363,9 @@
     </row>
     <row r="85" spans="1:26" ht="15.5">
       <c r="A85" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B85" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="B85" s="5"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3446,9 +3393,9 @@
     </row>
     <row r="86" spans="1:26" ht="15.5">
       <c r="A86" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B86" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="B86" s="5"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3476,9 +3423,9 @@
     </row>
     <row r="87" spans="1:26" ht="15.5">
       <c r="A87" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B87" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="B87" s="5"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3506,9 +3453,9 @@
     </row>
     <row r="88" spans="1:26" ht="15.5">
       <c r="A88" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B88" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="B88" s="5"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3534,246 +3481,6 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="15.5">
-      <c r="A89" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
-      <c r="X89" s="2"/>
-      <c r="Y89" s="2"/>
-      <c r="Z89" s="2"/>
-    </row>
-    <row r="90" spans="1:26" ht="15.5">
-      <c r="A90" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="2"/>
-      <c r="V90" s="2"/>
-      <c r="W90" s="2"/>
-      <c r="X90" s="2"/>
-      <c r="Y90" s="2"/>
-      <c r="Z90" s="2"/>
-    </row>
-    <row r="91" spans="1:26" ht="15.5">
-      <c r="A91" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="2"/>
-      <c r="V91" s="2"/>
-      <c r="W91" s="2"/>
-      <c r="X91" s="2"/>
-      <c r="Y91" s="2"/>
-      <c r="Z91" s="2"/>
-    </row>
-    <row r="92" spans="1:26" ht="15.5">
-      <c r="A92" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
-      <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
-      <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
-      <c r="Z92" s="2"/>
-    </row>
-    <row r="93" spans="1:26" ht="15.5">
-      <c r="A93" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
-      <c r="U93" s="2"/>
-      <c r="V93" s="2"/>
-      <c r="W93" s="2"/>
-      <c r="X93" s="2"/>
-      <c r="Y93" s="2"/>
-      <c r="Z93" s="2"/>
-    </row>
-    <row r="94" spans="1:26" ht="15.5">
-      <c r="A94" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
-      <c r="V94" s="2"/>
-      <c r="W94" s="2"/>
-      <c r="X94" s="2"/>
-      <c r="Y94" s="2"/>
-      <c r="Z94" s="2"/>
-    </row>
-    <row r="95" spans="1:26" ht="15.5">
-      <c r="A95" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-      <c r="U95" s="2"/>
-      <c r="V95" s="2"/>
-      <c r="W95" s="2"/>
-      <c r="X95" s="2"/>
-      <c r="Y95" s="2"/>
-      <c r="Z95" s="2"/>
-    </row>
-    <row r="96" spans="1:26" ht="15.5">
-      <c r="A96" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="2"/>
-      <c r="V96" s="2"/>
-      <c r="W96" s="2"/>
-      <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
-      <c r="Z96" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
